--- a/rec/NRO-21_016_PLAN DE BOITE.xlsx
+++ b/rec/NRO-21_016_PLAN DE BOITE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etudes20\PycharmProjects\Trial\rec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816828FF-E067-43BE-A8AC-67C70B54FEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D0D725-5E03-462D-A40C-4A39BA706B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="934" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="36">
   <si>
     <t>RETOUR</t>
   </si>
@@ -130,6 +130,15 @@
   </si>
   <si>
     <t>LIBRE</t>
+  </si>
+  <si>
+    <t>collecte</t>
+  </si>
+  <si>
+    <t>STOCKEE</t>
+  </si>
+  <si>
+    <t>TENIO-C6H-NT-0-V</t>
   </si>
 </sst>
 </file>
@@ -426,7 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -458,20 +467,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -529,6 +529,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -814,7 +826,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F30"/>
+      <selection activeCell="D7" sqref="D7:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,16 +856,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="26"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="31"/>
+      <c r="A4" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="28"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
@@ -867,10 +879,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="4">
         <v>1</v>
       </c>
@@ -883,20 +895,20 @@
       <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="33"/>
+      <c r="H7" s="30"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="7">
         <v>2</v>
       </c>
       <c r="D8" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>4</v>
@@ -904,18 +916,18 @@
       <c r="F8" s="7">
         <v>2</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="32"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="8">
         <v>3</v>
       </c>
       <c r="D9" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>4</v>
@@ -923,17 +935,17 @@
       <c r="F9" s="8">
         <v>3</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="35"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="9">
         <v>4</v>
       </c>
       <c r="D10" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>4</v>
@@ -941,17 +953,17 @@
       <c r="F10" s="9">
         <v>4</v>
       </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="32"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="10">
         <v>5</v>
       </c>
       <c r="D11" s="18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>4</v>
@@ -959,17 +971,17 @@
       <c r="F11" s="10">
         <v>5</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="35"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="1">
         <v>6</v>
       </c>
       <c r="D12" s="18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>4</v>
@@ -977,17 +989,17 @@
       <c r="F12" s="1">
         <v>6</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="32"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="11">
         <v>7</v>
       </c>
       <c r="D13" s="18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>4</v>
@@ -995,17 +1007,17 @@
       <c r="F13" s="11">
         <v>7</v>
       </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="12">
         <v>8</v>
       </c>
-      <c r="D14" s="18">
-        <v>8</v>
+      <c r="D14" s="19">
+        <v>4</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>4</v>
@@ -1013,17 +1025,17 @@
       <c r="F14" s="12">
         <v>8</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="32"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="13">
         <v>9</v>
       </c>
       <c r="D15" s="18">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>4</v>
@@ -1031,17 +1043,17 @@
       <c r="F15" s="13">
         <v>9</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="35"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="32"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="14">
         <v>10</v>
       </c>
-      <c r="D16" s="18">
-        <v>10</v>
+      <c r="D16" s="19">
+        <v>5</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>4</v>
@@ -1049,17 +1061,17 @@
       <c r="F16" s="14">
         <v>10</v>
       </c>
-      <c r="G16" s="34"/>
-      <c r="H16" s="35"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="7">
         <v>11</v>
       </c>
       <c r="D17" s="18">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>4</v>
@@ -1067,17 +1079,17 @@
       <c r="F17" s="7">
         <v>11</v>
       </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="35"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="32"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="15">
         <v>12</v>
       </c>
       <c r="D18" s="18">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>4</v>
@@ -1085,17 +1097,17 @@
       <c r="F18" s="15">
         <v>12</v>
       </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="35"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="32"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="4">
         <v>13</v>
       </c>
       <c r="D19" s="18">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>4</v>
@@ -1103,17 +1115,17 @@
       <c r="F19" s="4">
         <v>13</v>
       </c>
-      <c r="G19" s="34"/>
-      <c r="H19" s="35"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="32"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="7">
         <v>14</v>
       </c>
       <c r="D20" s="18">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>4</v>
@@ -1121,17 +1133,17 @@
       <c r="F20" s="7">
         <v>14</v>
       </c>
-      <c r="G20" s="34"/>
-      <c r="H20" s="35"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="32"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="35"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="8">
         <v>15</v>
       </c>
       <c r="D21" s="18">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>4</v>
@@ -1139,17 +1151,17 @@
       <c r="F21" s="8">
         <v>15</v>
       </c>
-      <c r="G21" s="34"/>
-      <c r="H21" s="35"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="32"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="35"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="9">
         <v>16</v>
       </c>
       <c r="D22" s="18">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>4</v>
@@ -1157,17 +1169,17 @@
       <c r="F22" s="9">
         <v>16</v>
       </c>
-      <c r="G22" s="34"/>
-      <c r="H22" s="35"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="32"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="35"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="10">
         <v>17</v>
       </c>
       <c r="D23" s="18">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>4</v>
@@ -1175,17 +1187,17 @@
       <c r="F23" s="10">
         <v>17</v>
       </c>
-      <c r="G23" s="34"/>
-      <c r="H23" s="35"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="35"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="1">
         <v>18</v>
       </c>
       <c r="D24" s="18">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>4</v>
@@ -1193,17 +1205,17 @@
       <c r="F24" s="1">
         <v>18</v>
       </c>
-      <c r="G24" s="34"/>
-      <c r="H24" s="35"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="32"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="35"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="11">
         <v>19</v>
       </c>
       <c r="D25" s="18">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>4</v>
@@ -1211,17 +1223,17 @@
       <c r="F25" s="11">
         <v>19</v>
       </c>
-      <c r="G25" s="34"/>
-      <c r="H25" s="35"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="32"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="35"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="12">
         <v>20</v>
       </c>
       <c r="D26" s="18">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>4</v>
@@ -1229,17 +1241,17 @@
       <c r="F26" s="12">
         <v>20</v>
       </c>
-      <c r="G26" s="34"/>
-      <c r="H26" s="35"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="32"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="35"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="13">
         <v>21</v>
       </c>
       <c r="D27" s="18">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>4</v>
@@ -1247,17 +1259,17 @@
       <c r="F27" s="13">
         <v>21</v>
       </c>
-      <c r="G27" s="34"/>
-      <c r="H27" s="35"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="32"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="35"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="14">
         <v>22</v>
       </c>
       <c r="D28" s="18">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>4</v>
@@ -1265,17 +1277,17 @@
       <c r="F28" s="14">
         <v>22</v>
       </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="35"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="32"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="35"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="7">
         <v>23</v>
       </c>
       <c r="D29" s="18">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>4</v>
@@ -1283,17 +1295,17 @@
       <c r="F29" s="7">
         <v>23</v>
       </c>
-      <c r="G29" s="34"/>
-      <c r="H29" s="35"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="32"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="35"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="15">
         <v>24</v>
       </c>
       <c r="D30" s="18">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>4</v>
@@ -1301,8 +1313,8 @@
       <c r="F30" s="15">
         <v>24</v>
       </c>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1323,10 +1335,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B9E9F1-2E4B-4D2B-9C51-2E39829B29E1}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="F7" sqref="F7:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1348,7 +1360,7 @@
       <c r="B1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="24"/>
+      <c r="C1" s="21"/>
       <c r="I1" s="16" t="s">
         <v>1</v>
       </c>
@@ -1362,37 +1374,37 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="26"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="31"/>
+      <c r="A4" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="28"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -1401,20 +1413,20 @@
       <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="21"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="7">
         <v>2</v>
       </c>
-      <c r="D8" s="20">
-        <v>2</v>
+      <c r="D8" s="19">
+        <v>1</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>4</v>
@@ -1424,286 +1436,298 @@
       </c>
       <c r="G8" s="39"/>
       <c r="H8" s="39"/>
-      <c r="I8" s="21"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="8">
         <v>3</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="8">
         <v>3</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="40"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="9">
         <v>4</v>
       </c>
-      <c r="D10" s="20">
-        <v>4</v>
+      <c r="D10" s="19">
+        <v>2</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="7">
-        <v>2</v>
-      </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
+      <c r="F10" s="9">
+        <v>4</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="10">
         <v>5</v>
       </c>
-      <c r="D11" s="20">
-        <v>5</v>
+      <c r="D11" s="19">
+        <v>3</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="8">
-        <v>3</v>
-      </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="35"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="1">
         <v>6</v>
       </c>
-      <c r="D12" s="20">
-        <v>6</v>
+      <c r="D12" s="19">
+        <v>3</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="9">
-        <v>4</v>
-      </c>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
+      <c r="F12" s="7">
+        <v>2</v>
+      </c>
+      <c r="G12" s="31"/>
+      <c r="H12" s="32"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="11">
         <v>7</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="23"/>
+      <c r="D13" s="19">
+        <v>4</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="8">
+        <v>3</v>
+      </c>
+      <c r="G13" s="31"/>
+      <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="12">
         <v>8</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="D14" s="19">
+        <v>4</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="9">
+        <v>4</v>
+      </c>
+      <c r="G14" s="31"/>
+      <c r="H14" s="32"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="13">
         <v>9</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
+      <c r="D15" s="19">
+        <v>5</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="10">
+        <v>5</v>
+      </c>
+      <c r="G15" s="31"/>
+      <c r="H15" s="32"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="14">
         <v>10</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
+      <c r="D16" s="19">
+        <v>5</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="22">
+        <v>6</v>
+      </c>
+      <c r="G16" s="33"/>
+      <c r="H16" s="34"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="7">
         <v>11</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="15">
         <v>12</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="4">
         <v>13</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="7">
         <v>14</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="35"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="8">
         <v>15</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="25" t="s">
+      <c r="D21" s="19"/>
+      <c r="E21" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="35"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="9">
         <v>16</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="25" t="s">
+      <c r="D22" s="19"/>
+      <c r="E22" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="35"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="10">
         <v>17</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="25" t="s">
+      <c r="D23" s="19"/>
+      <c r="E23" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="35"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="1">
         <v>18</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="25" t="s">
+      <c r="D24" s="19"/>
+      <c r="E24" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="35"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="11">
         <v>19</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="25" t="s">
+      <c r="D25" s="19"/>
+      <c r="E25" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="35"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="12">
         <v>20</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="25" t="s">
+      <c r="D26" s="19"/>
+      <c r="E26" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="28"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="25"/>
       <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="35"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="13">
         <v>21</v>
       </c>
-      <c r="D27" s="20">
-        <v>7</v>
+      <c r="D27" s="19">
+        <v>6</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>4</v>
@@ -1711,19 +1735,19 @@
       <c r="F27" s="11">
         <v>7</v>
       </c>
-      <c r="G27" s="40" t="s">
+      <c r="G27" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="40"/>
+      <c r="H27" s="37"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="35"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="14">
         <v>22</v>
       </c>
-      <c r="D28" s="20">
-        <v>8</v>
+      <c r="D28" s="19">
+        <v>6</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>4</v>
@@ -1731,87 +1755,56 @@
       <c r="F28" s="12">
         <v>8</v>
       </c>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="35"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="7">
         <v>23</v>
       </c>
-      <c r="D29" s="20">
-        <v>9</v>
+      <c r="D29" s="19">
+        <v>7</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="8">
-        <v>3</v>
-      </c>
-      <c r="G29" s="34" t="s">
+      <c r="F29" s="10">
+        <v>5</v>
+      </c>
+      <c r="G29" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="35"/>
+      <c r="H29" s="32"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="35"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="15">
         <v>24</v>
       </c>
-      <c r="D30" s="20">
-        <v>10</v>
+      <c r="D30" s="19">
+        <v>7</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="9">
-        <v>4</v>
-      </c>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" s="10">
-        <v>5</v>
-      </c>
-      <c r="G31" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="33"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" s="25">
+      <c r="F30" s="22">
         <v>6</v>
       </c>
-      <c r="G32" s="36"/>
-      <c r="H32" s="37"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="G31:H32"/>
+  <mergeCells count="7">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A7:B30"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="G9:H12"/>
     <mergeCell ref="G29:H30"/>
     <mergeCell ref="G27:H28"/>
+    <mergeCell ref="G7:H10"/>
+    <mergeCell ref="G11:H16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'BPE 31-197-201-0017'!A1" display="RETOUR" xr:uid="{9E448E51-97EB-44EA-9A7C-DEEAA9066FCF}"/>
@@ -1825,10 +1818,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9E1C9A-26F7-4581-98E7-3454A030604D}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1861,38 +1854,38 @@
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="26"/>
       <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="31"/>
+      <c r="A4" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="28"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -1901,19 +1894,19 @@
       <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="21"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="7">
         <v>2</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>2</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -1922,17 +1915,17 @@
       <c r="F8" s="7">
         <v>2</v>
       </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="21"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="8">
         <v>3</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <v>3</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -1941,16 +1934,16 @@
       <c r="F9" s="8">
         <v>3</v>
       </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="35"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="9">
         <v>4</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <v>4</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -1959,45 +1952,55 @@
       <c r="F10" s="9">
         <v>4</v>
       </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="35"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="32"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="10">
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="24">
         <v>5</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="22"/>
+      <c r="D11" s="19">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="24">
+        <v>5</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="37"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="1">
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="22">
         <v>6</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="D12" s="19">
+        <v>6</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="22">
+        <v>6</v>
+      </c>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="11">
         <v>7</v>
       </c>
-      <c r="D13" s="20">
-        <v>5</v>
+      <c r="D13" s="19">
+        <v>7</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>4</v>
@@ -2005,19 +2008,19 @@
       <c r="F13" s="11">
         <v>7</v>
       </c>
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="40"/>
+      <c r="H13" s="37"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="12">
         <v>8</v>
       </c>
-      <c r="D14" s="20">
-        <v>6</v>
+      <c r="D14" s="19">
+        <v>8</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>4</v>
@@ -2025,42 +2028,12 @@
       <c r="F14" s="12">
         <v>8</v>
       </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="27">
-        <v>5</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="40"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="25">
-        <v>6</v>
-      </c>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="G15:H16"/>
+    <mergeCell ref="G11:H12"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A7:B14"/>
@@ -2082,12 +2055,16 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="11.42578125" style="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2108,38 +2085,38 @@
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="26"/>
       <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="31"/>
+      <c r="A4" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="28"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -2148,19 +2125,19 @@
       <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="21"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="7">
         <v>2</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>2</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -2169,17 +2146,17 @@
       <c r="F8" s="7">
         <v>2</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="21"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="8">
         <v>3</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <v>3</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -2188,16 +2165,16 @@
       <c r="F9" s="8">
         <v>3</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="35"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="9">
         <v>4</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <v>4</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -2206,44 +2183,51 @@
       <c r="F10" s="9">
         <v>4</v>
       </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="37"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="34"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="10">
         <v>5</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="25"/>
-      <c r="H11" s="19"/>
+      <c r="D11" s="19">
+        <v>5</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="43"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="35"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="1">
         <v>6</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="D12" s="19">
+        <v>6</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="11">
         <v>7</v>
       </c>
-      <c r="D13" s="20">
-        <v>5</v>
+      <c r="D13" s="19">
+        <v>7</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>4</v>
@@ -2251,19 +2235,19 @@
       <c r="F13" s="10">
         <v>5</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="33"/>
+      <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="12">
         <v>8</v>
       </c>
-      <c r="D14" s="20">
-        <v>6</v>
+      <c r="D14" s="19">
+        <v>8</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>4</v>
@@ -2271,8 +2255,8 @@
       <c r="F14" s="1">
         <v>6</v>
       </c>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2281,7 +2265,7 @@
     <mergeCell ref="A7:B14"/>
     <mergeCell ref="G7:H10"/>
     <mergeCell ref="G13:H14"/>
-    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G11:H12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'BPE 31-197-201-0017'!A1" display="RETOUR" xr:uid="{3E4F9918-AD10-4FFE-AC10-E37A215D8E7F}"/>
@@ -2297,7 +2281,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E14" sqref="E14:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2344,10 +2328,10 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2360,10 +2344,10 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -2392,14 +2376,14 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="1"/>
@@ -2410,14 +2394,14 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -2426,22 +2410,22 @@
       <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="21"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="20"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="7">
         <v>2</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>2</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -2450,20 +2434,20 @@
       <c r="F8" s="7">
         <v>2</v>
       </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="21"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="20"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="8">
         <v>3</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <v>3</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -2472,20 +2456,20 @@
       <c r="F9" s="8">
         <v>3</v>
       </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="35"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="32"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="9">
         <v>4</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <v>4</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -2494,20 +2478,20 @@
       <c r="F10" s="9">
         <v>4</v>
       </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="35"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="32"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="10">
         <v>5</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="19">
         <v>5</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -2516,22 +2500,22 @@
       <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="G11" s="42" t="s">
+      <c r="G11" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="35"/>
+      <c r="H11" s="32"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="35"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="1">
         <v>6</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <v>6</v>
       </c>
       <c r="E12" s="6" t="s">
@@ -2540,20 +2524,20 @@
       <c r="F12" s="7">
         <v>2</v>
       </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="35"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="32"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="11">
         <v>7</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <v>7</v>
       </c>
       <c r="E13" s="6" t="s">
@@ -2562,42 +2546,42 @@
       <c r="F13" s="8">
         <v>3</v>
       </c>
-      <c r="G13" s="42"/>
-      <c r="H13" s="35"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="32"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="12">
         <v>8</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="25" t="s">
+      <c r="D14" s="19"/>
+      <c r="E14" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="13">
         <v>9</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="25" t="s">
+      <c r="D15" s="19"/>
+      <c r="E15" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="25"/>
+      <c r="F15" s="22"/>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="1"/>
@@ -2606,12 +2590,12 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="14">
         <v>10</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="19">
         <v>8</v>
       </c>
       <c r="E16" s="6" t="s">
@@ -2620,22 +2604,22 @@
       <c r="F16" s="10">
         <v>5</v>
       </c>
-      <c r="G16" s="40" t="s">
+      <c r="G16" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="40"/>
+      <c r="H16" s="37"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="7">
         <v>11</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="19">
         <v>9</v>
       </c>
       <c r="E17" s="6" t="s">
@@ -2644,20 +2628,20 @@
       <c r="F17" s="1">
         <v>6</v>
       </c>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="15">
         <v>12</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="19">
         <v>10</v>
       </c>
       <c r="E18" s="6" t="s">
@@ -2666,10 +2650,10 @@
       <c r="F18" s="9">
         <v>4</v>
       </c>
-      <c r="G18" s="43" t="s">
+      <c r="G18" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="44"/>
+      <c r="H18" s="41"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -2698,11 +2682,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4AF2061-F690-49D0-9FA5-F5D46595EC1A}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
@@ -2741,10 +2726,10 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2757,10 +2742,10 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -2789,14 +2774,14 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="1"/>
@@ -2807,14 +2792,14 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -2823,23 +2808,23 @@
       <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="21"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="20"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="7">
         <v>2</v>
       </c>
-      <c r="D8" s="20">
-        <v>2</v>
+      <c r="D8" s="19">
+        <v>1</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>4</v>
@@ -2847,21 +2832,21 @@
       <c r="F8" s="7">
         <v>2</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="21"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="20"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="8">
         <v>3</v>
       </c>
-      <c r="D9" s="20">
-        <v>3</v>
+      <c r="D9" s="19">
+        <v>1</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>4</v>
@@ -2869,21 +2854,21 @@
       <c r="F9" s="8">
         <v>3</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="35"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="9">
         <v>4</v>
       </c>
-      <c r="D10" s="20">
-        <v>4</v>
+      <c r="D10" s="19">
+        <v>2</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>4</v>
@@ -2891,8 +2876,8 @@
       <c r="F10" s="9">
         <v>4</v>
       </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="37"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="34"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -2950,11 +2935,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E1E885-36FC-4062-BDB3-84AC9DCB869B}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="11.42578125" style="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2975,38 +2966,38 @@
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="26"/>
       <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="28"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -3015,20 +3006,20 @@
       <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="21"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="7">
         <v>2</v>
       </c>
-      <c r="D8" s="20">
-        <v>2</v>
+      <c r="D8" s="19">
+        <v>1</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>4</v>
@@ -3036,18 +3027,18 @@
       <c r="F8" s="7">
         <v>2</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="21"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="8">
         <v>3</v>
       </c>
-      <c r="D9" s="20">
-        <v>3</v>
+      <c r="D9" s="19">
+        <v>1</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>4</v>
@@ -3055,17 +3046,17 @@
       <c r="F9" s="8">
         <v>3</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="35"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="9">
         <v>4</v>
       </c>
-      <c r="D10" s="20">
-        <v>4</v>
+      <c r="D10" s="19">
+        <v>2</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>4</v>
@@ -3073,8 +3064,8 @@
       <c r="F10" s="9">
         <v>4</v>
       </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="37"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/rec/NRO-21_016_PLAN DE BOITE.xlsx
+++ b/rec/NRO-21_016_PLAN DE BOITE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etudes20\PycharmProjects\Trial\rec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etudes20\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D0D725-5E03-462D-A40C-4A39BA706B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77BE8F15-DDB8-4FD3-BA07-B61A1F56AF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="934" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="3435" windowWidth="28680" windowHeight="8730" tabRatio="934" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BPE-21-016-100-0002" sheetId="19" r:id="rId1"/>

--- a/rec/NRO-21_016_PLAN DE BOITE.xlsx
+++ b/rec/NRO-21_016_PLAN DE BOITE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etudes20\Pictures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bureauetudes15\Desktop\fibre21\21-016\transport-globale\CLASSEUR 016\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77BE8F15-DDB8-4FD3-BA07-B61A1F56AF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1114B7-AEE9-48B7-9B7B-29B5582007A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="3435" windowWidth="28680" windowHeight="8730" tabRatio="934" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="934" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BPE-21-016-100-0002" sheetId="19" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="36">
   <si>
     <t>RETOUR</t>
   </si>
@@ -277,7 +277,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -397,19 +397,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -424,10 +411,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -435,7 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -475,13 +462,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -503,45 +484,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -823,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3908376B-5D05-42EA-8101-3DBDFF3E647B}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,16 +837,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="24"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="26"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
@@ -879,10 +860,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="4">
         <v>1</v>
       </c>
@@ -895,15 +876,15 @@
       <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="30"/>
+      <c r="H7" s="31"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="7">
         <v>2</v>
       </c>
@@ -917,12 +898,12 @@
         <v>2</v>
       </c>
       <c r="G8" s="31"/>
-      <c r="H8" s="32"/>
+      <c r="H8" s="31"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="8">
         <v>3</v>
       </c>
@@ -936,11 +917,11 @@
         <v>3</v>
       </c>
       <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
+      <c r="H9" s="31"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="9">
         <v>4</v>
       </c>
@@ -954,11 +935,11 @@
         <v>4</v>
       </c>
       <c r="G10" s="31"/>
-      <c r="H10" s="32"/>
+      <c r="H10" s="31"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="10">
         <v>5</v>
       </c>
@@ -972,11 +953,11 @@
         <v>5</v>
       </c>
       <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
+      <c r="H11" s="31"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="1">
         <v>6</v>
       </c>
@@ -990,11 +971,11 @@
         <v>6</v>
       </c>
       <c r="G12" s="31"/>
-      <c r="H12" s="32"/>
+      <c r="H12" s="31"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="11">
         <v>7</v>
       </c>
@@ -1008,11 +989,11 @@
         <v>7</v>
       </c>
       <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
+      <c r="H13" s="31"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="12">
         <v>8</v>
       </c>
@@ -1026,196 +1007,122 @@
         <v>8</v>
       </c>
       <c r="G14" s="31"/>
-      <c r="H14" s="32"/>
+      <c r="H14" s="31"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="13">
         <v>9</v>
       </c>
-      <c r="D15" s="18">
-        <v>5</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="13">
-        <v>9</v>
-      </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
+      <c r="E15" s="22" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="14">
         <v>10</v>
       </c>
-      <c r="D16" s="19">
-        <v>5</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="14">
-        <v>10</v>
-      </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="32"/>
+      <c r="E16" s="22" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="7">
         <v>11</v>
       </c>
-      <c r="D17" s="18">
-        <v>6</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="7">
-        <v>11</v>
-      </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="32"/>
+      <c r="E17" s="22" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="15">
         <v>12</v>
       </c>
-      <c r="D18" s="18">
-        <v>6</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="15">
-        <v>12</v>
-      </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="32"/>
+      <c r="E18" s="22" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="4">
         <v>13</v>
       </c>
-      <c r="D19" s="18">
-        <v>7</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="4">
-        <v>13</v>
-      </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="32"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="22" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="7">
         <v>14</v>
       </c>
-      <c r="D20" s="18">
-        <v>7</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="7">
-        <v>14</v>
-      </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="32"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="22" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="8">
         <v>15</v>
       </c>
-      <c r="D21" s="18">
-        <v>8</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="8">
-        <v>15</v>
-      </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="32"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="22" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="9">
         <v>16</v>
       </c>
-      <c r="D22" s="18">
-        <v>8</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="9">
-        <v>16</v>
-      </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="32"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="22" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="10">
         <v>17</v>
       </c>
-      <c r="D23" s="18">
-        <v>9</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="10">
-        <v>17</v>
-      </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="32"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="22" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="1">
         <v>18</v>
       </c>
-      <c r="D24" s="18">
-        <v>9</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="1">
-        <v>18</v>
-      </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="32"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="22" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="11">
         <v>19</v>
       </c>
       <c r="D25" s="18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>4</v>
@@ -1223,17 +1130,19 @@
       <c r="F25" s="11">
         <v>19</v>
       </c>
-      <c r="G25" s="31"/>
-      <c r="H25" s="32"/>
+      <c r="G25" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="31"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="12">
         <v>20</v>
       </c>
-      <c r="D26" s="18">
-        <v>10</v>
+      <c r="D26" s="19">
+        <v>5</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>4</v>
@@ -1242,16 +1151,16 @@
         <v>20</v>
       </c>
       <c r="G26" s="31"/>
-      <c r="H26" s="32"/>
+      <c r="H26" s="31"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="13">
         <v>21</v>
       </c>
       <c r="D27" s="18">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>4</v>
@@ -1260,16 +1169,16 @@
         <v>21</v>
       </c>
       <c r="G27" s="31"/>
-      <c r="H27" s="32"/>
+      <c r="H27" s="31"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="32"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="14">
         <v>22</v>
       </c>
       <c r="D28" s="18">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>4</v>
@@ -1278,16 +1187,16 @@
         <v>22</v>
       </c>
       <c r="G28" s="31"/>
-      <c r="H28" s="32"/>
+      <c r="H28" s="31"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="7">
         <v>23</v>
       </c>
       <c r="D29" s="18">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>4</v>
@@ -1296,16 +1205,16 @@
         <v>23</v>
       </c>
       <c r="G29" s="31"/>
-      <c r="H29" s="32"/>
+      <c r="H29" s="31"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="32"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="15">
         <v>24</v>
       </c>
       <c r="D30" s="18">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>4</v>
@@ -1313,15 +1222,119 @@
       <c r="F30" s="15">
         <v>24</v>
       </c>
-      <c r="G30" s="33"/>
-      <c r="H30" s="34"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E31" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="13">
+        <v>9</v>
+      </c>
+      <c r="G31" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="44"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E32" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="14">
+        <v>10</v>
+      </c>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E33" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="7">
+        <v>11</v>
+      </c>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+    </row>
+    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E34" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="15">
+        <v>12</v>
+      </c>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+    </row>
+    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E35" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="4">
+        <v>13</v>
+      </c>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+    </row>
+    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E36" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="7">
+        <v>14</v>
+      </c>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+    </row>
+    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E37" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="8">
+        <v>15</v>
+      </c>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+    </row>
+    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E38" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="9">
+        <v>16</v>
+      </c>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+    </row>
+    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E39" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="10">
+        <v>17</v>
+      </c>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+    </row>
+    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E40" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="1">
+        <v>18</v>
+      </c>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="G31:H40"/>
+    <mergeCell ref="G7:H14"/>
+    <mergeCell ref="G25:H30"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A7:B30"/>
-    <mergeCell ref="G7:H30"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -1337,9 +1350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B9E9F1-2E4B-4D2B-9C51-2E39829B29E1}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1374,16 +1385,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="24"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="26"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="20" t="s">
@@ -1397,10 +1408,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="4">
         <v>1</v>
       </c>
@@ -1413,15 +1424,15 @@
       <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="35"/>
+      <c r="H7" s="31"/>
       <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="7">
         <v>2</v>
       </c>
@@ -1434,13 +1445,13 @@
       <c r="F8" s="7">
         <v>2</v>
       </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
       <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="8">
         <v>3</v>
       </c>
@@ -1453,12 +1464,12 @@
       <c r="F9" s="8">
         <v>3</v>
       </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="9">
         <v>4</v>
       </c>
@@ -1468,15 +1479,17 @@
       <c r="E10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="9">
-        <v>4</v>
-      </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="31"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="10">
         <v>5</v>
       </c>
@@ -1486,17 +1499,15 @@
       <c r="E11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="30"/>
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="1">
         <v>6</v>
       </c>
@@ -1506,15 +1517,15 @@
       <c r="E12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="7">
-        <v>2</v>
+      <c r="F12" s="8">
+        <v>3</v>
       </c>
       <c r="G12" s="31"/>
-      <c r="H12" s="32"/>
+      <c r="H12" s="31"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="11">
         <v>7</v>
       </c>
@@ -1524,15 +1535,15 @@
       <c r="E13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="8">
-        <v>3</v>
+      <c r="F13" s="9">
+        <v>4</v>
       </c>
       <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
+      <c r="H13" s="31"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="12">
         <v>8</v>
       </c>
@@ -1542,103 +1553,92 @@
       <c r="E14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="9">
-        <v>4</v>
+      <c r="F14" s="10">
+        <v>5</v>
       </c>
       <c r="G14" s="31"/>
-      <c r="H14" s="32"/>
+      <c r="H14" s="31"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="13">
         <v>9</v>
       </c>
-      <c r="D15" s="19">
-        <v>5</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="10">
-        <v>5</v>
-      </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
+      <c r="E15" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="14">
         <v>10</v>
       </c>
-      <c r="D16" s="19">
-        <v>5</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="22">
-        <v>6</v>
-      </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="34"/>
+      <c r="E16" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="42"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="7">
         <v>11</v>
       </c>
       <c r="E17" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="15">
         <v>12</v>
       </c>
       <c r="E18" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="22"/>
+      <c r="F18" s="42"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="4">
         <v>13</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="22"/>
+      <c r="F19" s="42"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="7">
         <v>14</v>
       </c>
+      <c r="D20" s="19"/>
       <c r="E20" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="22"/>
+      <c r="F20" s="42"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="8">
         <v>15</v>
       </c>
@@ -1646,13 +1646,13 @@
       <c r="E21" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="22"/>
+      <c r="F21" s="42"/>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="9">
         <v>16</v>
       </c>
@@ -1660,13 +1660,13 @@
       <c r="E22" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="22"/>
+      <c r="F22" s="42"/>
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="10">
         <v>17</v>
       </c>
@@ -1674,13 +1674,13 @@
       <c r="E23" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="22"/>
+      <c r="F23" s="42"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="1">
         <v>18</v>
       </c>
@@ -1688,41 +1688,51 @@
       <c r="E24" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="43"/>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="11">
         <v>19</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
+      <c r="D25" s="19">
+        <v>5</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="36">
+        <v>6</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="31"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="12">
         <v>20</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="17"/>
+      <c r="D26" s="19">
+        <v>5</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="38">
+        <v>7</v>
+      </c>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="13">
         <v>21</v>
       </c>
@@ -1732,17 +1742,15 @@
       <c r="E27" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="11">
-        <v>7</v>
-      </c>
-      <c r="G27" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="37"/>
+      <c r="F27" s="39">
+        <v>8</v>
+      </c>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="32"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="14">
         <v>22</v>
       </c>
@@ -1752,15 +1760,17 @@
       <c r="E28" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="12">
-        <v>8</v>
-      </c>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
+      <c r="F28" s="40">
+        <v>4</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="31"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="7">
         <v>23</v>
       </c>
@@ -1770,17 +1780,15 @@
       <c r="E29" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="41">
         <v>5</v>
       </c>
-      <c r="G29" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="32"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="32"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="15">
         <v>24</v>
       </c>
@@ -1790,21 +1798,21 @@
       <c r="E30" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F30" s="36">
         <v>6</v>
       </c>
-      <c r="G30" s="33"/>
-      <c r="H30" s="34"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A7:B30"/>
-    <mergeCell ref="G29:H30"/>
-    <mergeCell ref="G27:H28"/>
-    <mergeCell ref="G7:H10"/>
-    <mergeCell ref="G11:H16"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="G28:H30"/>
+    <mergeCell ref="G10:H14"/>
+    <mergeCell ref="G25:H27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'BPE 31-197-201-0017'!A1" display="RETOUR" xr:uid="{9E448E51-97EB-44EA-9A7C-DEEAA9066FCF}"/>
@@ -1821,7 +1829,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1854,17 +1862,17 @@
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="24"/>
       <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="26"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="20" t="s">
@@ -1878,10 +1886,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="4">
         <v>1</v>
       </c>
@@ -1894,15 +1902,15 @@
       <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="30"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="7">
         <v>2</v>
       </c>
@@ -1915,13 +1923,13 @@
       <c r="F8" s="7">
         <v>2</v>
       </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="32"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="30"/>
       <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="8">
         <v>3</v>
       </c>
@@ -1934,12 +1942,12 @@
       <c r="F9" s="8">
         <v>3</v>
       </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="32"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="9">
         <v>4</v>
       </c>
@@ -1952,13 +1960,13 @@
       <c r="F10" s="9">
         <v>4</v>
       </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="32"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="30"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="24">
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="23">
         <v>5</v>
       </c>
       <c r="D11" s="19">
@@ -1967,17 +1975,15 @@
       <c r="E11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="23">
         <v>5</v>
       </c>
-      <c r="G11" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="37"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="22">
         <v>6</v>
       </c>
@@ -1990,12 +1996,12 @@
       <c r="F12" s="22">
         <v>6</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="11">
         <v>7</v>
       </c>
@@ -2008,14 +2014,12 @@
       <c r="F13" s="11">
         <v>7</v>
       </c>
-      <c r="G13" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="37"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="12">
         <v>8</v>
       </c>
@@ -2028,17 +2032,15 @@
       <c r="F14" s="12">
         <v>8</v>
       </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="G11:H12"/>
+  <mergeCells count="4">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A7:B14"/>
-    <mergeCell ref="G13:H14"/>
-    <mergeCell ref="G7:H10"/>
+    <mergeCell ref="G7:H14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'BPE 31-197-201-0017'!A1" display="RETOUR" xr:uid="{6CAC3104-3852-4F61-848F-B90B06F77159}"/>
@@ -2085,17 +2087,17 @@
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="24"/>
       <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="26"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="20" t="s">
@@ -2109,10 +2111,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="4">
         <v>1</v>
       </c>
@@ -2125,15 +2127,15 @@
       <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="30"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="7">
         <v>2</v>
       </c>
@@ -2146,13 +2148,13 @@
       <c r="F8" s="7">
         <v>2</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="32"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="30"/>
       <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="8">
         <v>3</v>
       </c>
@@ -2165,30 +2167,30 @@
       <c r="F9" s="8">
         <v>3</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="9">
         <v>4</v>
       </c>
       <c r="D10" s="19">
         <v>4</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="9">
-        <v>4</v>
-      </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34"/>
+      <c r="E10" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="37"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="10">
         <v>5</v>
       </c>
@@ -2199,30 +2201,32 @@
         <v>34</v>
       </c>
       <c r="F11" s="22"/>
-      <c r="G11" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="43"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="1">
         <v>6</v>
       </c>
       <c r="D12" s="19">
         <v>6</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45"/>
+      <c r="E12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="9">
+        <v>4</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="11">
         <v>7</v>
       </c>
@@ -2235,14 +2239,12 @@
       <c r="F13" s="10">
         <v>5</v>
       </c>
-      <c r="G13" s="29" t="s">
-        <v>19</v>
-      </c>
+      <c r="G13" s="29"/>
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="12">
         <v>8</v>
       </c>
@@ -2255,17 +2257,17 @@
       <c r="F14" s="1">
         <v>6</v>
       </c>
-      <c r="G14" s="33"/>
-      <c r="H14" s="34"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="G12:H14"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A7:B14"/>
-    <mergeCell ref="G7:H10"/>
-    <mergeCell ref="G13:H14"/>
-    <mergeCell ref="G11:H12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'BPE 31-197-201-0017'!A1" display="RETOUR" xr:uid="{3E4F9918-AD10-4FFE-AC10-E37A215D8E7F}"/>
@@ -2278,10 +2280,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9B0EA2-76CB-4A9F-AB2B-DE532C885809}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2328,10 +2330,10 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2344,10 +2346,10 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -2394,280 +2396,284 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="19">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="35" t="s">
+      <c r="D7" s="47">
+        <v>1</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="46">
+        <v>1</v>
+      </c>
+      <c r="G7" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="30"/>
+      <c r="H7" s="31"/>
       <c r="I7" s="20"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="7">
         <v>2</v>
       </c>
-      <c r="D8" s="19">
-        <v>2</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="7">
-        <v>2</v>
-      </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="32"/>
+      <c r="D8" s="47">
+        <v>2</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="49">
+        <v>2</v>
+      </c>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
       <c r="I8" s="20"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="8">
         <v>3</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="47">
         <v>3</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="E9" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="50">
         <v>3</v>
       </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="32"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="9">
         <v>4</v>
       </c>
-      <c r="D10" s="19">
-        <v>4</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="9">
-        <v>4</v>
-      </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="32"/>
+      <c r="D10" s="47">
+        <v>4</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="46">
+        <v>1</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="31"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="10">
         <v>5</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="47">
         <v>5</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="32"/>
+      <c r="E11" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="49">
+        <v>2</v>
+      </c>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="1">
         <v>6</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="47">
         <v>6</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="7">
-        <v>2</v>
-      </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="32"/>
+      <c r="E12" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="50">
+        <v>3</v>
+      </c>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="11">
         <v>7</v>
       </c>
-      <c r="D13" s="19">
-        <v>7</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="8">
-        <v>3</v>
-      </c>
-      <c r="G13" s="39"/>
-      <c r="H13" s="32"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="12">
         <v>8</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="13">
         <v>9</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
+      <c r="D15" s="47">
+        <v>7</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="51">
+        <v>4</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="31"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="14">
         <v>10</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="47">
         <v>8</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="10">
-        <v>5</v>
-      </c>
-      <c r="G16" s="37" t="s">
+      <c r="E16" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="51">
+        <v>4</v>
+      </c>
+      <c r="G16" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="37"/>
+      <c r="H16" s="31"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="7">
         <v>11</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="47">
         <v>9</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="1">
-        <v>6</v>
-      </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
+      <c r="E17" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="52">
+        <v>5</v>
+      </c>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="15">
         <v>12</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="47">
         <v>10</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="9">
-        <v>4</v>
-      </c>
-      <c r="G18" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="41"/>
+      <c r="E18" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="45">
+        <v>6</v>
+      </c>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
       <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A7:B18"/>
-    <mergeCell ref="G16:H17"/>
-    <mergeCell ref="G7:H10"/>
-    <mergeCell ref="G11:H13"/>
-    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="G15:H15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'BPE 31-197-201-0017'!A1" display="RETOUR" xr:uid="{82D2951E-7F3D-471C-8FD3-25D00684FCBA}"/>
@@ -2682,7 +2688,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4AF2061-F690-49D0-9FA5-F5D46595EC1A}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2726,10 +2734,10 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2742,10 +2750,10 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -2792,10 +2800,10 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="4">
         <v>1</v>
       </c>
@@ -2808,18 +2816,18 @@
       <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="30"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="20"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="7">
         <v>2</v>
       </c>
@@ -2832,16 +2840,16 @@
       <c r="F8" s="7">
         <v>2</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="32"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="30"/>
       <c r="I8" s="20"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="8">
         <v>3</v>
       </c>
@@ -2854,16 +2862,16 @@
       <c r="F9" s="8">
         <v>3</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="9">
         <v>4</v>
       </c>
@@ -2876,8 +2884,8 @@
       <c r="F10" s="9">
         <v>4</v>
       </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -2966,17 +2974,17 @@
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="24"/>
       <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="26"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="20" t="s">
@@ -2990,10 +2998,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="4">
         <v>1</v>
       </c>
@@ -3006,15 +3014,15 @@
       <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="30"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="7">
         <v>2</v>
       </c>
@@ -3027,13 +3035,13 @@
       <c r="F8" s="7">
         <v>2</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="32"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="30"/>
       <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="8">
         <v>3</v>
       </c>
@@ -3046,12 +3054,12 @@
       <c r="F9" s="8">
         <v>3</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="9">
         <v>4</v>
       </c>
@@ -3064,8 +3072,8 @@
       <c r="F10" s="9">
         <v>4</v>
       </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="4">
